--- a/resources/initial.xlsx
+++ b/resources/initial.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F181"/>
+  <dimension ref="A1:F182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1313,7 +1313,11 @@
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1459,9 +1463,21 @@
           <t>Галина</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Наипревосходнейшая и прежалостная трагедия Ромео и Джульетта</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Уильям Шекспир</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>https://livelib.ru/work/1002389383-naiprevoshodnejshaya-i-prezhalostnaya-tragediya-romeo-i-dzhuletta-uilyam-shekspir</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1577,7 +1593,11 @@
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1789,7 +1809,11 @@
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1805,7 +1829,11 @@
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1823,9 +1851,21 @@
           <t>Галина</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Девушка с татуировкой дракона</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Стиг Ларссон</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>https://livelib.ru/work/1000947223-devushka-s-tatuirovkoj-drakona-stig-larsson</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1843,9 +1883,21 @@
           <t>Галина</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Граф Монте-Кристо</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Alexandre Dumas</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>https://livelib.ru/work/1000480528-graf-montekristo-alexandre-dumas</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1863,9 +1915,21 @@
           <t>Галина</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Виноваты звезды</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Джон Грин</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>https://livelib.ru/work/1002777198-vinovaty-zvezdy-dzhon-grin</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1883,9 +1947,21 @@
           <t>Галина</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Цвет пурпурный</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Элис Уокер</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>https://livelib.ru/work/1000445896-tsvet-purpurnyj-elis-uoker</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1905,7 +1981,11 @@
       </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1923,9 +2003,21 @@
           <t>Галина</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Дерево растёт в Бруклине</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Betty Smith</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>https://livelib.ru/work/1002912330-derevo-rastjot-v-brukline-betty-smith</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1943,9 +2035,21 @@
           <t>Галина</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Уловка-22</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Джозеф Хеллер</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>https://livelib.ru/work/1002480817-ulovka22-dzhozef-heller</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1963,9 +2067,21 @@
           <t>Галина</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Хладнокровное убийство</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Трумен Капоте</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>https://livelib.ru/work/1000949445-hladnokrovnoe-ubijstvo-trumen-kapote</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1983,14 +2099,26 @@
           <t>Галина</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Противостояние</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Стивен Кинг</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>https://livelib.ru/work/1000891594-protivostoyanie-stiven-king</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Алиса в Стране чудес и в Зазеркалье</t>
+          <t>Алиса в Стране чудес</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2003,19 +2131,31 @@
           <t>Галина</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Приключения Алисы в Стране Чудес, или Странствие в Странную Страну по страницам престранной пространной истории</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Льюис Кэрролл</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>https://livelib.ru/work/1008204898-priklyucheniya-alisy-v-strane-chudes-ili-stranstvie-v-strannuyu-stranu-po-stranitsam-prestrannoj-prostrannoj-istorii-lyuis-kerroll</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Обитатели холмов</t>
+          <t>Алиса в Зазеркалье</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Ричард Адамс</t>
+          <t>Льюис Кэрролл</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2023,19 +2163,31 @@
           <t>Галина</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Сквозь Зеркало и что там увидела Алиса, или Алиса в Зазеркалье</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Льюис Кэролл</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>https://livelib.ru/work/1001256001-skvoz-zerkalo-i-chto-tam-uvidela-alisa-ili-alisa-v-zazerkale-lyuis-keroll</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Анна Каренина</t>
+          <t>Обитатели холмов</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Лев Толстой</t>
+          <t>Ричард Адамс</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2043,19 +2195,31 @@
           <t>Галина</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Обитатели холмов</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Ричард Адамс</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>https://livelib.ru/work/1001074925-obitateli-holmov-richard-adams</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Игра Эндера</t>
+          <t>Анна Каренина</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Орсон Скотт Кард</t>
+          <t>Лев Толстой</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2063,19 +2227,31 @@
           <t>Галина</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Анна Каренина</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Лев Толстой</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>https://livelib.ru/work/1000947453-anna-karenina-lev-tolstoj</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Большие надежды</t>
+          <t>Игра Эндера</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Чарльз Диккенс</t>
+          <t>Орсон Скотт Кард</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2083,19 +2259,31 @@
           <t>Галина</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Игра Эндера</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Орсон Скотт Кард</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>https://livelib.ru/work/1000877455-igra-endera-orson-skott-kard</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Ребекка</t>
+          <t>Большие надежды</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Дафна Дюморье</t>
+          <t>Чарльз Диккенс</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2103,19 +2291,31 @@
           <t>Галина</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Большие надежды</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Чарльз Диккенс</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>https://livelib.ru/work/1000605610-bolshie-nadezhdy-charlz-dikkens</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Мемуары гейши</t>
+          <t>Ребекка</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Артур Голден</t>
+          <t>Дафна Дюморье</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2123,19 +2323,31 @@
           <t>Галина</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Ребекка</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Дафна Дюморье</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>https://livelib.ru/work/1000487984-rebekka-dafna-dyumore</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Приключения Шерлока Холмса</t>
+          <t>Мемуары гейши</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Артур Конан Дойл</t>
+          <t>Артур Голден</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2143,19 +2355,31 @@
           <t>Галина</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Мемуары гейши</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Артур Голден</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>https://livelib.ru/work/1000326225-memuary-gejshi-artur-golden</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Гарри Поттер и узник Азкабана</t>
+          <t>Приключения Шерлока Холмса</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Джоан Роулинг</t>
+          <t>Артур Конан Дойл</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2163,19 +2387,31 @@
           <t>Галина</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Пёстрая лента: Приключение Шерлока Холмса</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Артур Конан Дойл</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>https://livelib.ru/work/1006986358-pjostraya-lenta-priklyuchenie-sherloka-holmsa-artur-konan-dojl</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Старик и море</t>
+          <t>Гарри Поттер и узник Азкабана</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Эрнест Хемингуэй</t>
+          <t>Джоан Роулинг</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2183,19 +2419,31 @@
           <t>Галина</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Гарри Поттер и узник Азкабана</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Дж. К. Роулинг</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>https://livelib.ru/work/1000324559-garri-potter-i-uznik-azkabana-dzh-k-rouling</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Песнь Льда и Огня: Игра престолов</t>
+          <t>Старик и море</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Джордж Р. Р. Мартин</t>
+          <t>Эрнест Хемингуэй</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2203,19 +2451,31 @@
           <t>Галина</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Старик и море</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Эрнест Хемингуэй</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>https://livelib.ru/work/1000877621-starik-i-more-ernest-heminguej</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Принцесса-невеста</t>
+          <t>Игра престолов</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Уильям Голдман</t>
+          <t>Джордж Р. Р. Мартин</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2223,19 +2483,31 @@
           <t>Галина</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Игра престолов</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Джордж Мартин</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>https://livelib.ru/work/1000929772-igra-prestolov-dzhordzh-martin</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Чарли и Шоколадная фабрика</t>
+          <t>Принцесса-невеста</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Роальд Даль</t>
+          <t>Уильям Голдман</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2243,19 +2515,31 @@
           <t>Галина</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Принцесса-невеста</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Голдман Уильям</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>https://livelib.ru/work/1001110547-printsessanevesta-goldman-uilyam</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Жизнь Пи</t>
+          <t>Чарли и Шоколадная фабрика</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Янн Мартел</t>
+          <t>Роальд Даль</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2263,19 +2547,31 @@
           <t>Галина</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Чарли и шоколадная фабрика</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Роальд Даль</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>https://livelib.ru/work/1000482648-charli-i-shokoladnaya-fabrika-roald-dal</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Столпы Земли</t>
+          <t>Жизнь Пи</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Кен Фоллетт</t>
+          <t>Янн Мартел</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2283,19 +2579,31 @@
           <t>Галина</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Жизнь Пи</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Ян Мартелл</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>https://livelib.ru/work/1000330839-zhizn-pi-yan-martell</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Отверженные</t>
+          <t>Столпы Земли</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Виктор Гюго</t>
+          <t>Кен Фоллетт</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2303,19 +2611,31 @@
           <t>Галина</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Столпы Земли</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Кен Фоллетт</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>https://livelib.ru/work/1002003493-stolpy-zemli-ken-follett</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Алая буква</t>
+          <t>Отверженные</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Натаниэль Готорн</t>
+          <t>Виктор Гюго</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2323,19 +2643,31 @@
           <t>Галина</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Отверженные</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Виктор Гюго</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>https://livelib.ru/work/1000326370-otverzhennye-viktor-gyugo</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Дракула</t>
+          <t>Алая буква</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Брэм Стокер</t>
+          <t>Натаниэль Готорн</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2343,19 +2675,31 @@
           <t>Галина</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Алая буква</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Nathaniel Hawthorne</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>https://livelib.ru/work/1000957294-alaya-bukva-nathaniel-hawthorne</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Гарри Поттер и Принц-полукровка</t>
+          <t>Дракула</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Джоан Роулинг</t>
+          <t>Брэм Стокер</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2363,19 +2707,31 @@
           <t>Галина</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr"/>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Дракула</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Брэм Стокер</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>https://livelib.ru/work/1007281342-drakula-brem-stoker</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Голодные игры: И вспыхнет пламя</t>
+          <t>Гарри Поттер и Принц-полукровка</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Сьюзен Коллинз</t>
+          <t>Джоан Роулинг</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2383,19 +2739,31 @@
           <t>Галина</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr"/>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Гарри Поттер и Принц-полукровка</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Дж. К. Роулинг</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>https://livelib.ru/work/1000324560-garri-potter-i-printspolukrovka-dzh-k-rouling</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Воды слонам</t>
+          <t>Голодные игры</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Сара Груэн</t>
+          <t>Сьюзен Коллинз</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2403,19 +2771,31 @@
           <t>Галина</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Голодные игры</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Сьюзен Коллинз</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>https://livelib.ru/work/1000725921-golodnye-igry-syuzen-kollinz</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Ворон</t>
+          <t>Воды слонам</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Эдгар Аллан По</t>
+          <t>Сара Груэн</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2423,19 +2803,31 @@
           <t>Галина</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr"/>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Вода для слонов</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Сара Груэн</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>https://livelib.ru/work/1007119861-voda-dlya-slonov-sara-gruen</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Тайная жизнь пчёл</t>
+          <t>Ворон</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Сью Монк Кидд</t>
+          <t>Эдгар Аллан По</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2443,19 +2835,31 @@
           <t>Галина</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr"/>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Ворон</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Эдгар Аллан По</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>https://livelib.ru/work/1003158836-voron-edgar-allan-po</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Чужестранка</t>
+          <t>Тайная жизнь пчёл</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Диана Гэблдон</t>
+          <t>Сью Монк Кидд</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2463,19 +2867,31 @@
           <t>Галина</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr"/>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Тайная жизнь пчел</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Сью Монк Кидд</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>https://livelib.ru/work/1002006313-tajnaya-zhizn-pchel-syu-monk-kidd</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Сто лет одиночества</t>
+          <t>Чужестранка</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Габриэль Гарсиа Маркес</t>
+          <t>Диана Гэблдон</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2483,19 +2899,31 @@
           <t>Галина</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr"/>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Чужестранка</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Диана Гэблдон</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>https://livelib.ru/work/1002003700-chuzhestranka-diana-gebldon</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Библия ядовитого леса</t>
+          <t>Сто лет одиночества</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Барбара Кингсолвер</t>
+          <t>Габриэль Гарсиа Маркес</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2503,19 +2931,31 @@
           <t>Галина</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr"/>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Сто лет одиночества</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Габриэль Гарсия Маркес</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>https://livelib.ru/work/1000581304-sto-let-odinochestva-gabriel-garsiya-markes</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Земля</t>
+          <t>Библия ядовитого леса</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Перл Бак</t>
+          <t>Барбара Кингсолвер</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2530,12 +2970,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Жена путешественника во времени</t>
+          <t>Земля</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Одри Ниффенеггер</t>
+          <t>Перл Бак</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2543,19 +2983,31 @@
           <t>Галина</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr"/>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Земля</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Перл Бак</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>https://livelib.ru/work/1001616139-zemlya-perl-bak</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Празднуя тишину</t>
+          <t>Жена путешественника во времени</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Шри Шри Рави Шанкар</t>
+          <t>Одри Ниффенеггер</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2563,19 +3015,31 @@
           <t>Галина</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr"/>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Жена путешественника во времени</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Одри Ниффенеггер</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>https://livelib.ru/work/1000966032-zhena-puteshestvennika-vo-vremeni-odri-niffenegger</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Молитва об Оуэне Мини</t>
+          <t>Празднуя тишину</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Джон Ирвинг</t>
+          <t>Шри Шри Рави Шанкар</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2590,12 +3054,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Десять негритят</t>
+          <t>Молитва об Оуэне Мини</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Агата Кристи</t>
+          <t>Джон Ирвинг</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2603,19 +3067,31 @@
           <t>Галина</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr"/>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Молитва об Оуэне Мини</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Джон Ирвинг</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>https://livelib.ru/work/1001509042-molitva-ob-ouene-mini-dzhon-irving</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Бессмертная жизнь Генриетты Лакс</t>
+          <t>Десять негритят</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Ребекка Склут</t>
+          <t>Агата Кристи</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2623,19 +3099,31 @@
           <t>Галина</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr"/>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Десять негритят</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Агата Кристи</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>https://livelib.ru/work/1000941922-desyat-negrityat-agata-kristi</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Поющие в терновнике</t>
+          <t>Бессмертная жизнь Генриетты Лакс</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Колин Маккалоу</t>
+          <t>Ребекка Склут</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2643,19 +3131,31 @@
           <t>Галина</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr"/>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Бессмертная жизнь Генриетты Лакс</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Ребекка Склут</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>https://livelib.ru/work/1002393697-bessmertnaya-zhizn-genrietty-laks-rebekka-sklut</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Замок из стекла</t>
+          <t>Поющие в терновнике</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Джаннетт Уоллс</t>
+          <t>Колин Маккалоу</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2663,19 +3163,31 @@
           <t>Галина</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr"/>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Поющие в терновнике</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Колин Маккалоу</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>https://livelib.ru/work/1000541209-poyuschie-v-ternovnike-kolin-makkalou</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Сойка-пересмешница</t>
+          <t>Замок из стекла</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Сьюзен Коллинз</t>
+          <t>Джаннетт Уоллс</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2683,19 +3195,31 @@
           <t>Галина</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr"/>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Замок из стекла</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Джаннетт Уоллс</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>https://livelib.ru/work/1002060004-zamok-iz-stekla-dzhannett-uolls</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Вещи, которые они несли с собой</t>
+          <t>Сойка-пересмешница</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Тим О’Брайен</t>
+          <t>Сьюзен Коллинз</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2703,19 +3227,31 @@
           <t>Галина</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr"/>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Сойка-пересмешница</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Сьюзен Коллинз</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>https://livelib.ru/work/1000450901-sojkaperesmeshnitsa-syuzen-kollinz</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Дорога</t>
+          <t>Вещи, которые они несли с собой</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Кормак Маккарти</t>
+          <t>Тим О’Брайен</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2730,12 +3266,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Резка по камню</t>
+          <t>Дорога</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Абрахам Верес</t>
+          <t>Кормак Маккарти</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2743,19 +3279,31 @@
           <t>Галина</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr"/>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Дорога</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Cormac McCarthy</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>https://livelib.ru/work/1000326886-doroga-cormac-mccarthy</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Братья Карамазовы</t>
+          <t>Резка по камню</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Федор Достоевский</t>
+          <t>Абрахам Верес</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2770,12 +3318,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Сиддхартха</t>
+          <t>Братья Карамазовы</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Герман Гессе</t>
+          <t>Федор Достоевский</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2783,19 +3331,31 @@
           <t>Галина</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr"/>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Братья Карамазовы</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Fyodor Dostoyevsky</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>https://livelib.ru/work/1000455631-bratya-karamazovy-fyodor-dostoyevsky</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Возлюбленная</t>
+          <t>Сиддхартха</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Тони Моррисон</t>
+          <t>Герман Гессе</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2803,19 +3363,31 @@
           <t>Галина</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr"/>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Сиддхартха</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Герман Гессе</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>https://livelib.ru/work/1000947732-siddhartha-german-gesse</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>История моей жизни</t>
+          <t>Возлюбленная</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Хелен Келлер</t>
+          <t>Тони Моррисон</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2823,19 +3395,31 @@
           <t>Галина</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr"/>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Возлюбленная</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Тони Моррисон</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>https://livelib.ru/work/1001994557-vozlyublennaya-toni-morrison</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Призрачная будка</t>
+          <t>История моей жизни</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Джоан Джастер</t>
+          <t>Хелен Келлер</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2843,19 +3427,31 @@
           <t>Галина</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr"/>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>История моей жизни</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Хелен Келлер</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>https://livelib.ru/work/1002296908-istoriya-moej-zhizni-helen-keller</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Из архива Миссис Базиль Э. Франквайлер, самого запутанного в мире</t>
+          <t>Призрачная будка</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Элейн Конигсбург</t>
+          <t>Джоан Джастер</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2870,12 +3466,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Исчезнувшая</t>
+          <t>Из архива Миссис Базиль Э. Франквайлер, самого запутанного в мире</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Гиллиан Флинн</t>
+          <t>Элейн Конигсбург</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2883,19 +3479,31 @@
           <t>Галина</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr"/>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Из архива миссис Базиль Э. Франквайлер, самого запутанного в мире</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Э. Л. Конигсбург</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>https://livelib.ru/work/1001829013-izarhiva-missis-bazil-e-frankvajler-samogo-zaputannogo-vmire-e-l-konigsburg</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Преступление и наказание</t>
+          <t>Исчезнувшая</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Федор Достоевский</t>
+          <t>Гиллиан Флинн</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2903,19 +3511,31 @@
           <t>Галина</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr"/>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Исчезнувшая</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Гиллиан Флинн</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>https://livelib.ru/work/1001334971-ischeznuvshaya-gillian-flinn</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Одиссея</t>
+          <t>Преступление и наказание</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Гомер</t>
+          <t>Федор Достоевский</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2923,39 +3543,63 @@
           <t>Галина</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr"/>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Преступление и наказание</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Фёдор Достоевский</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>https://livelib.ru/work/1001116154-prestuplenie-i-nakazanie-fjodor-dostoevskij</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Annotated Turing</t>
+          <t>Одиссея</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Petzold</t>
+          <t>Гомер</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Антон</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr"/>
-      <c r="E102" t="inlineStr"/>
-      <c r="F102" t="inlineStr"/>
+          <t>Галина</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Одиссея</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Гомер</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>https://livelib.ru/work/1000829237-odisseya-gomer</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Principles of Scientific Management</t>
+          <t>Annotated Turing</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Frederic Winslow Taylor</t>
+          <t>Petzold</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2970,12 +3614,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Dialogue Mapping</t>
+          <t>Principles of Scientific Management</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Jeff Conklin</t>
+          <t>Frederic Winslow Taylor</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -2990,12 +3634,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Thinking in Systems</t>
+          <t>Dialogue Mapping</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Daniella Meadows</t>
+          <t>Jeff Conklin</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3010,12 +3654,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Lean Change Management</t>
+          <t>Thinking in Systems</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Jason Little</t>
+          <t>Daniella Meadows</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3030,12 +3674,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>An Introduction to General Systems Thinking</t>
+          <t>Lean Change Management</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Gerald M. Weinberg</t>
+          <t>Jason Little</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3050,7 +3694,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>General Systems Design Principles</t>
+          <t>An Introduction to General Systems Thinking</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3070,7 +3714,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Exploring Requirements</t>
+          <t>General Systems Design Principles</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3090,7 +3734,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Quality Software Management</t>
+          <t>Exploring Requirements</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -3110,12 +3754,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Русская модель управления</t>
+          <t>Quality Software Management</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Прохоров А.П</t>
+          <t>Gerald M. Weinberg</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3130,12 +3774,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Distributed Systems. Principles and Paradigms</t>
+          <t>Русская модель управления</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Tanenbaum</t>
+          <t>Прохоров А.П</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -3143,19 +3787,31 @@
           <t>Антон</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr"/>
-      <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr"/>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Русская модель управления</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Александр Прохоров</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>https://livelib.ru/work/1002200979-russkaya-model-upravleniya-aleksandr-prohorov</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Теория практика и искусство управления</t>
+          <t>Distributed Systems. Principles and Paradigms</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Кнорринг</t>
+          <t>Tanenbaum</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -3170,12 +3826,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Теория Организации</t>
+          <t>Теория практика и искусство управления</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Ружанская</t>
+          <t>Кнорринг</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -3183,19 +3839,31 @@
           <t>Антон</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr"/>
-      <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr"/>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Теория практика и искусство управления</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Владимир Кнорринг</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>https://livelib.ru/work/1002155045-teoriya-praktika-i-iskusstvo-upravleniya-vladimir-knorring</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Organize for Complexity</t>
+          <t>Теория Организации</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Pfaeing</t>
+          <t>Ружанская</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -3210,12 +3878,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Managing Complexity in Crisis. Field book</t>
+          <t>Organize for Complexity</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Snowden</t>
+          <t>Pfaeing</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -3230,12 +3898,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Wicked Solutions</t>
+          <t>Managing Complexity in Crisis. Field book</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Bob Williams</t>
+          <t>Snowden</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -3250,12 +3918,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>о целеустремленных системах</t>
+          <t>Wicked Solutions</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Акофф</t>
+          <t>Bob Williams</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -3270,12 +3938,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>порядок и хаос в развитии социальных системах</t>
+          <t>о целеустремленных системах</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Василькова</t>
+          <t>Акофф</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -3290,12 +3958,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Знакомство с нелинейной динамикой</t>
+          <t>порядок и хаос в развитии социальных системах</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Анищенко</t>
+          <t>Василькова</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -3310,12 +3978,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Гаргантюа и Пантагрюель</t>
+          <t>Знакомство с нелинейной динамикой</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Франсуа Рабле</t>
+          <t>Анищенко</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -3330,12 +3998,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>История кавалера де Грие и Манон Леско</t>
+          <t>Гаргантюа и Пантагрюель</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Антуан Прево</t>
+          <t>Франсуа Рабле</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -3343,19 +4011,31 @@
           <t>Антон</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr"/>
-      <c r="E122" t="inlineStr"/>
-      <c r="F122" t="inlineStr"/>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Гаргантюа и Пантагрюэль</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Франсуа Рабле</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>https://livelib.ru/work/1000306152-gargantyua-i-pantagryuel-fransua-rable</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Опасные связи</t>
+          <t>История кавалера де Грие и Манон Леско</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Шодеро де Лакло</t>
+          <t>Антуан Прево</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -3363,19 +4043,31 @@
           <t>Антон</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr"/>
-      <c r="E123" t="inlineStr"/>
-      <c r="F123" t="inlineStr"/>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>История кавалера де Грие и Манон Леско</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Антуан-Франсуа Прево</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>https://livelib.ru/work/1000440888-istoriya-kavalera-de-grie-i-manon-lesko-antuanfransua-prevo</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Речи Царств</t>
+          <t>Опасные связи</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Го Юй</t>
+          <t>Шодеро де Лакло</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -3390,12 +4082,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Так как есть</t>
+          <t>Речи Царств</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Тулку Ургьен</t>
+          <t>Го Юй</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -3410,12 +4102,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Радостная мудрось</t>
+          <t>Так как есть</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Йонге Мингьюр</t>
+          <t>Тулку Ургьен</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -3430,7 +4122,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Будда, мозг и нейрофизиология счастья</t>
+          <t>Радостная мудрось</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -3450,12 +4142,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Логико-философский трактат</t>
+          <t>Будда, мозг и нейрофизиология счастья</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Витгенштейн</t>
+          <t>Йонге Мингьюр</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -3463,19 +4155,31 @@
           <t>Антон</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr"/>
-      <c r="E128" t="inlineStr"/>
-      <c r="F128" t="inlineStr"/>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Будда, мозг и нейрофизиология счастья. Как изменить жизнь к лучшему. Практическое руководство</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Йонге Мингьюр Ринпоче</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>https://livelib.ru/work/1001117882-budda-mozg-i-nejrofiziologiya-schastya-kak-izmenit-zhizn-k-luchshemu-prakticheskoe-rukovodstvo-jonge-mingyur-rinpoche</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Стремление к счатью</t>
+          <t>Логико-философский трактат</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Фейербах</t>
+          <t>Витгенштейн</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -3483,19 +4187,31 @@
           <t>Антон</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr"/>
-      <c r="E129" t="inlineStr"/>
-      <c r="F129" t="inlineStr"/>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Логико-философский трактат</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Людвиг Витгенштейн</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>https://livelib.ru/work/1002139577-logikofilosofskij-traktat-lyudvig-vitgenshtejn</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>к философии</t>
+          <t>Стремление к счатью</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Хайдегер</t>
+          <t>Фейербах</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -3510,12 +4226,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Этика</t>
+          <t>к философии</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Спиноза</t>
+          <t>Хайдегер</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -3530,12 +4246,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>искусство мыслить</t>
+          <t>Этика</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Рассел</t>
+          <t>Спиноза</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -3543,19 +4259,31 @@
           <t>Антон</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr"/>
-      <c r="E132" t="inlineStr"/>
-      <c r="F132" t="inlineStr"/>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Этика</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Бенедикт Спиноза</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>https://livelib.ru/work/1001022964-etika-benedikt-spinoza</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Золотые стихи Пифагора</t>
+          <t>искусство мыслить</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Антуан д'Оливье</t>
+          <t>Рассел</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -3563,19 +4291,31 @@
           <t>Антон</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr"/>
-      <c r="E133" t="inlineStr"/>
-      <c r="F133" t="inlineStr"/>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Искусство мыслить</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Бертран Рассел</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>https://livelib.ru/work/1002440207-iskusstvo-myslit-bertran-rassel</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Теория метафоры</t>
+          <t>Золотые стихи Пифагора</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Арутюнова</t>
+          <t>Антуан д'Оливье</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -3590,17 +4330,17 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Философия. Учебник МГУ</t>
+          <t>Теория метафоры</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Алексеев, Панин</t>
+          <t>Арутюнова</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Галина</t>
+          <t>Антон</t>
         </is>
       </c>
       <c r="D135" t="inlineStr"/>
@@ -3610,12 +4350,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Идеи с границы познания</t>
+          <t>Философия. Учебник МГУ</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Холт</t>
+          <t>Алексеев, Панин</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -3630,12 +4370,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Учебник логики</t>
+          <t>Идеи с границы познания</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Челпанов</t>
+          <t>Холт</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -3650,12 +4390,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Критика чистого разума</t>
+          <t>Учебник логики</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t xml:space="preserve">Кант </t>
+          <t>Челпанов</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -3670,12 +4410,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Сапиенс</t>
+          <t>Критика чистого разума</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Харай</t>
+          <t xml:space="preserve">Кант </t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -3690,12 +4430,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>12 правил</t>
+          <t>Сапиенс</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Питерсон</t>
+          <t>Харай</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -3710,12 +4450,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Team topologies</t>
+          <t>12 правил</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Skelton, Pais</t>
+          <t>Питерсон</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -3730,12 +4470,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Software Engineering at Google</t>
+          <t>Team topologies</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Winters и др</t>
+          <t>Skelton, Pais</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -3750,12 +4490,12 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Head first git</t>
+          <t>Software Engineering at Google</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Ganhdi</t>
+          <t>Winters и др</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -3770,12 +4510,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Microservices patterns</t>
+          <t>Head first git</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Richardson</t>
+          <t>Ganhdi</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -3790,12 +4530,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Wicked Solutions</t>
+          <t>Microservices patterns</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Bob Williams</t>
+          <t>Richardson</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -3810,12 +4550,12 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Generic pipelines using Docker</t>
+          <t>Wicked Solutions</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Atkinson</t>
+          <t>Bob Williams</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -3830,12 +4570,12 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Стратегия как обучение</t>
+          <t>Generic pipelines using Docker</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Вилли Питерсен</t>
+          <t>Atkinson</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -3850,12 +4590,12 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Accelerate</t>
+          <t>Стратегия как обучение</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Forsgren</t>
+          <t>Вилли Питерсен</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -3870,12 +4610,12 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Дневники</t>
+          <t>Accelerate</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Тесла</t>
+          <t>Forsgren</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -3890,12 +4630,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Practical Monitoring</t>
+          <t>Дневники</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Julian</t>
+          <t>Тесла</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -3910,12 +4650,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Без воды</t>
+          <t>Practical Monitoring</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Безручко</t>
+          <t>Julian</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -3930,12 +4670,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Искусство объяснять</t>
+          <t>Без воды</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Лефер</t>
+          <t>Безручко</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -3950,12 +4690,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Мотивация и личность</t>
+          <t>Искусство объяснять</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Маслоу</t>
+          <t>Лефер</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -3970,12 +4710,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Systems performance</t>
+          <t>Мотивация и личность</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Gregg</t>
+          <t>Маслоу</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -3990,12 +4730,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>The Art of Software Security Assessment</t>
+          <t>Systems performance</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Dowd</t>
+          <t>Gregg</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -4010,12 +4750,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Theory of everything</t>
+          <t>The Art of Software Security Assessment</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Hawking</t>
+          <t>Dowd</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -4030,12 +4770,12 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Managing Corporate Lifecycles</t>
+          <t>Theory of everything</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Adizes</t>
+          <t>Hawking</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -4050,12 +4790,12 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Right to left</t>
+          <t>Managing Corporate Lifecycles</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Burrows</t>
+          <t>Adizes</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -4070,12 +4810,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Как создать продукт, который купят</t>
+          <t>Right to left</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Лидхем</t>
+          <t>Burrows</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -4090,12 +4830,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Капитал</t>
+          <t>Как создать продукт, который купят</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Маркс</t>
+          <t>Лидхем</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -4110,12 +4850,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Исследование о природе и причинах богатсва народов</t>
+          <t>Капитал</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Смит</t>
+          <t>Маркс</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -4130,12 +4870,12 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Бегство от свободы</t>
+          <t>Исследование о природе и причинах богатсва народов</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Фромм</t>
+          <t>Смит</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -4150,12 +4890,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Байки из склепа</t>
+          <t>Бегство от свободы</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t xml:space="preserve">Добрышевский </t>
+          <t>Фромм</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -4170,12 +4910,12 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Release it</t>
+          <t>Байки из склепа</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Nygard</t>
+          <t xml:space="preserve">Добрышевский </t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -4190,17 +4930,17 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Нетворкинг для разведчиков. Как извлечь пользу из любого знакомства</t>
+          <t>Release it</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Елена Вавилова, Андрей Безруков</t>
+          <t>Nygard</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Сергей</t>
+          <t>Галина</t>
         </is>
       </c>
       <c r="D165" t="inlineStr"/>
@@ -4210,12 +4950,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Высоконагруженные приложения. Программирование, масштабирование, поддержка</t>
+          <t>Нетворкинг для разведчиков. Как извлечь пользу из любого знакомства</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Клеппман М.</t>
+          <t>Елена Вавилова, Андрей Безруков</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -4230,12 +4970,12 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Искусство войны</t>
+          <t>Высоконагруженные приложения. Программирование, масштабирование, поддержка</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Сунь-цзы</t>
+          <t>Клеппман М.</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -4250,12 +4990,12 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Добыча</t>
+          <t>Искусство войны</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Дэниел Ергин</t>
+          <t>Сунь-цзы</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -4270,12 +5010,12 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>SuperBetter</t>
+          <t>Добыча</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Джейн Макгонигал</t>
+          <t>Дэниел Ергин</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -4290,12 +5030,12 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Множественные источники дохода</t>
+          <t>SuperBetter</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Аллен Роберт Г.</t>
+          <t>Джейн Макгонигал</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -4310,10 +5050,14 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Python глазами хакера</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr"/>
+          <t>Множественные источники дохода</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Аллен Роберт Г.</t>
+        </is>
+      </c>
       <c r="C171" t="inlineStr">
         <is>
           <t>Сергей</t>
@@ -4326,14 +5070,10 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>TRANSHUMANISM INC</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>Пелевин Виктор</t>
-        </is>
-      </c>
+          <t>Python глазами хакера</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr"/>
       <c r="C172" t="inlineStr">
         <is>
           <t>Сергей</t>
@@ -4346,7 +5086,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>KGBT+</t>
+          <t>TRANSHUMANISM INC</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -4366,12 +5106,12 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>На западном фронте без перемен</t>
+          <t>KGBT+</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Э.М. Ремарк</t>
+          <t>Пелевин Виктор</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -4386,12 +5126,12 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Хаос-инжиниринг</t>
+          <t>На западном фронте без перемен</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Кейси Розенталь, Нора Джонс</t>
+          <t>Э.М. Ремарк</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -4406,12 +5146,12 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Основы Маркетинга</t>
+          <t>Хаос-инжиниринг</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Филипп Котлер</t>
+          <t>Кейси Розенталь, Нора Джонс</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -4426,12 +5166,12 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Ген директора. 17 правил позитивного менеджмента по-русски</t>
+          <t>Основы Маркетинга</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Владимир Моженков</t>
+          <t>Филипп Котлер</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -4446,12 +5186,12 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Черный Обелиск</t>
+          <t>Ген директора. 17 правил позитивного менеджмента по-русски</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Э.М. Ремарк</t>
+          <t>Владимир Моженков</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -4466,12 +5206,12 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Бизнес-профайлинг. Как не жить в самообмане и зарабатывать, опираясь на психологию</t>
+          <t>Черный Обелиск</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Спирица, Крутилин</t>
+          <t>Э.М. Ремарк</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -4486,12 +5226,12 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>«Хожде́ние по мукам»</t>
+          <t>Бизнес-профайлинг. Как не жить в самообмане и зарабатывать, опираясь на психологию</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>А. Н. Толстого</t>
+          <t>Спирица, Крутилин</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -4506,12 +5246,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Karmalogic</t>
+          <t>«Хожде́ние по мукам»</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Ситников Алексей</t>
+          <t>А. Н. Толстого</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -4522,6 +5262,26 @@
       <c r="D181" t="inlineStr"/>
       <c r="E181" t="inlineStr"/>
       <c r="F181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Karmalogic</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Ситников Алексей</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Сергей</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr"/>
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
